--- a/数据整理/stocks/A股/上证主板/601992-金隅集团.xlsx
+++ b/数据整理/stocks/A股/上证主板/601992-金隅集团.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>15.82</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>94.50</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>3.36</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5316</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>7</v>
       </c>
     </row>
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>94.50</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>3.36</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1418</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>7</v>
       </c>
     </row>
@@ -553,7 +583,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,15 +604,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -594,26 +634,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004142</t>
+          <t>004856</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>招商盛合灵活配置混合A</t>
+          <t>广发中证全指建筑材料指数A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>84.97</t>
+          <t>10.22</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.18</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>9</v>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3127</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -622,26 +672,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004143</t>
+          <t>004857</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>招商盛合灵活配置混合C</t>
+          <t>广发中证全指建筑材料指数C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>84.97</t>
+          <t>4.22</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.18</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>9</v>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1291</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -650,26 +710,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004856</t>
+          <t>004142</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发中证全指建筑材料指数A</t>
+          <t>招商盛合灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.88</t>
+          <t>6.23</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>7</v>
+          <t>84.97</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0735</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -678,25 +748,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>004857</t>
+          <t>005616</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广发中证全指建筑材料指数C</t>
+          <t>东方量化成长灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>94.88</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+          <t>90.54</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>7</v>
       </c>
     </row>
@@ -706,26 +786,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005616</t>
+          <t>004143</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>东方量化成长灵活配置混合</t>
+          <t>招商盛合灵活配置混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>90.54</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2.13</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>7</v>
+          <t>84.97</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/601992-金隅集团.xlsx
+++ b/数据整理/stocks/A股/上证主板/601992-金隅集团.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -821,4 +822,212 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004856</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证全指建筑材料指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2223</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003318</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城中证500行业中性低波动指数</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.40</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1525</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004857</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发中证全指建筑材料指数C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1032</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>512260</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安中证500行业中性低波动ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>96.36</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601992-金隅集团.xlsx
+++ b/数据整理/stocks/A股/上证主板/601992-金隅集团.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1030,4 +1031,288 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004856</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证全指建筑材料指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2424</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004857</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发中证全指建筑材料指数C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1265</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>159745</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰中证全指建筑材料交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.23</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0828</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>512780</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发中证京津冀协同发展主题ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.85</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>164811</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银瑞信中证京津冀协同发展主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>164825</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>工银瑞信中证京津冀协同发展主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601992-金隅集团.xlsx
+++ b/数据整理/stocks/A股/上证主板/601992-金隅集团.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1315,4 +1316,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601992-金隅集团.xlsx
+++ b/数据整理/stocks/A股/上证主板/601992-金隅集团.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1324,7 +1325,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1335,17 +1336,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1355,14 +1376,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.46</v>
+          <t>004856</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证全指建筑材料指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.44</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3911</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1371,14 +1414,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.49</v>
+          <t>004857</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发中证全指建筑材料指数C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1752</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1387,14 +1452,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.52</v>
+          <t>003318</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城中证500行业中性低波动指数</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.69</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1585</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1403,13 +1490,265 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>159745</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰中证全指建筑材料交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.30</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1030</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>516750</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国中证全指建筑材料ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.85</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0799</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>512260</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安中证500行业中性低波动ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>96.32</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005126</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银河量化稳进混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>77.95</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.67</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601992-金隅集团.xlsx
+++ b/数据整理/stocks/A股/上证主板/601992-金隅集团.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1647,7 +1648,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1658,17 +1659,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1678,14 +1699,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.92</v>
+          <t>004856</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证全指建筑材料指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.72</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4651</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1694,14 +1737,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.46</v>
+          <t>007994</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>31.45</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4403</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1710,14 +1775,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.49</v>
+          <t>004857</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发中证全指建筑材料指数C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2051</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1726,14 +1813,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>5</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.52</v>
+          <t>003318</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城中证500行业中性低波动指数</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.99</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1665</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1742,13 +1851,471 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>159745</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰中证全指建筑材料交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.37</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1331</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007995</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0763</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008856</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏安泰对冲策略3个月定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>80.67</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0376</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>516750</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国中证全指建筑材料ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>98.22</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>512260</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华安中证500行业中性低波动ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>96.94</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>164811</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>工银瑞信中证京津冀协同发展主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>512780</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发中证京津冀协同发展主题ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>98.52</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005126</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>银河量化稳进混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>78.20</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>164825</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>工银瑞信中证京津冀协同发展主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>2</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.67</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601992-金隅集团.xlsx
+++ b/数据整理/stocks/A股/上证主板/601992-金隅集团.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2198,7 +2199,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2209,17 +2210,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2229,14 +2250,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>13</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.57</v>
+          <t>004856</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证全指建筑材料指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.24</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.04</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2806</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -2245,14 +2288,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.92</v>
+          <t>159745</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰中证全指建筑材料交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.27</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2250</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -2261,14 +2326,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.46</v>
+          <t>004857</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发中证全指建筑材料指数C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.59</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>95.04</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2080</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -2277,14 +2364,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.49</v>
+          <t>009613</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>上银中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.68</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -2293,14 +2402,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.52</v>
+          <t>516750</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国中证全指建筑材料ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.46</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -2309,13 +2440,297 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>009614</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>上银中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.68</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005120</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>上投摩根量化多因子灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009919</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>上银核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009918</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>上银核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>13</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>2</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.67</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601992-金隅集团.xlsx
+++ b/数据整理/stocks/A股/上证主板/601992-金隅集团.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,11 +489,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D2" t="n">
         <v>0.78</v>
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>1.57</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D4" t="n">
-        <v>0.92</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>0.46</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>0.49</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>0.52</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>5</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>2</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.67</v>
       </c>
     </row>
@@ -600,6 +617,556 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>159745</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证全指建筑材料ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2637</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004856</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发中证全指建筑材料指数A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2405</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004857</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发中证全指建筑材料指数C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1922</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>516750</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国中证全指建筑材料ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.46</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012419</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>天弘国证建材指数C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009658</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘低波动策略股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003242</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>创金合信量化发现灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159787</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达中证全指建筑材料ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003241</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>创金合信量化发现灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012405</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>天弘国证建材指数A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>164811</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>工银瑞信中证京津冀协同发展主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>164825</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>工银瑞信中证京津冀协同发展主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009775</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘低波动策略股票C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -997,7 +1564,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1547,7 +2114,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1869,7 +2436,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2153,7 +2720,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2361,7 +2928,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2607,7 +3174,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/601992-金隅集团.xlsx
+++ b/数据整理/stocks/A股/上证主板/601992-金隅集团.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" t="n">
-        <v>0.78</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="3">
@@ -505,11 +506,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D3" t="n">
         <v>0.78</v>
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>1.57</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D5" t="n">
-        <v>0.92</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>0.46</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>0.49</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>0.52</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>5</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>2</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.67</v>
       </c>
     </row>
@@ -616,7 +633,651 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004856</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证全指建筑材料指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.82</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5316</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004857</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发中证全指建筑材料指数C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1418</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>159745</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证全指建筑材料ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2190</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004856</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发中证全指建筑材料指数A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2040</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004857</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发中证全指建筑材料指数C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1327</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>516750</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国中证全指建筑材料ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.35</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>159617</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏中证智选500价值稳健策略ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>97.09</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012419</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>天弘国证建材指数C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>159787</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达中证全指建筑材料ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>96.55</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>164811</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>工银瑞信中证京津冀协同发展主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012405</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>天弘国证建材指数A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005260</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>银华稳健增利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005261</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>银华稳健增利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>164825</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>工银瑞信中证京津冀协同发展主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1166,7 +1827,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1564,7 +2225,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2114,7 +2775,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2436,7 +3097,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2720,7 +3381,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2928,7 +3589,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3172,136 +3833,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>004856</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发中证全指建筑材料指数A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>15.82</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.50</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.36</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.5316</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>004857</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>广发中证全指建筑材料指数C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>4.22</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.50</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.36</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1418</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>